--- a/demo_data_4.xlsx
+++ b/demo_data_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles.Shaw\Desktop\PyRobyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2004AF22-AEF2-4201-8F8B-FA6F57E26CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392D2A09-68D1-4561-B4A5-599473C60285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -561,7 +558,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:W1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
